--- a/biology/Médecine/Frank_G._Slaughter/Frank_G._Slaughter.xlsx
+++ b/biology/Médecine/Frank_G._Slaughter/Frank_G._Slaughter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frank Gill Slaughter, né le 25 février 1908 à Washington et mort le 17 mai 2001, est un médecin et romancier populaire américain, dont les livres se sont vendus à plus de 60 millions d'exemplaires[1]. Il a écrit principalement sous le nom de plume Frank G. Slaughter, mais aussi sous le pseudonyme C. V. Terry[1]. Plusieurs de ses romans ont été adaptés au cinéma, notamment Bon sang ne peut mentir (The Warrior ou Seminole), en 1953, avec Rock Hudson ; Sangarée (Sangaree), en 1953, avec Fernando Lamas ; et Femmes de médecins (Doctors' Wives), en 1971, avec Dyan Cannon et Gene Hackman.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frank Gill Slaughter, né le 25 février 1908 à Washington et mort le 17 mai 2001, est un médecin et romancier populaire américain, dont les livres se sont vendus à plus de 60 millions d'exemplaires. Il a écrit principalement sous le nom de plume Frank G. Slaughter, mais aussi sous le pseudonyme C. V. Terry. Plusieurs de ses romans ont été adaptés au cinéma, notamment Bon sang ne peut mentir (The Warrior ou Seminole), en 1953, avec Rock Hudson ; Sangarée (Sangaree), en 1953, avec Fernando Lamas ; et Femmes de médecins (Doctors' Wives), en 1971, avec Dyan Cannon et Gene Hackman.
 Ses romans s'inspirent de sa propre expérience en tant que médecin et reflètent son intérêt pour l'histoire et les récits bibliques. Il présente souvent aux lecteurs les captivants résultats de la recherche médicale et les dernières inventions dans le domaine des technologies médicales.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank G. Slaughter grandit dans une plantation de tabac à Granville Country, dans l'État de Caroline du Nord, près de Durham. À 14 ans, il entre au Trinity College (établissement devenu l'Université Duke), et en sort à 18 ans en ayant obtenu sa licence avec mention "Très bien". Il s'inscrit la même année à l'école de médecine de l'Université Johns-Hopkins à Baltimore dans l'État du Maryland. Il y obtient son diplôme en 1930, soit à 22 ans seulement, s'inscrivant parmi les plus jeunes diplômés de cette célèbre école de médecine. En 1935, Slaughter commence à écrire lorsqu'il est médecin à l’hôpital Riverside à Jacksonville (Floride) sur une machine à écrire payée 60 $ et en la remboursant 5 $ tous les mois. Il réécrit six fois "Afin que nul ne meure" - l'autobiographie romancée d'un jeune médecin - avant que le texte ne soit accepté par les éditions Doubleday.
 Cloué au lit au cours de ses dernières années, il continue à dicter les passages d'un nouveau roman à l'aide d'un magnétophone, raconte Renay Hunter, sa femme de ménage de longue date. Les deux derniers romans de Slaughter sont Jusqu'à son dernier souffle (No Greater Love), publié en 1985, et La Greffe (Transplant), paru en 1987. Il décède le 17 mai 2001.
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-That None Should Die (1941) Publié en français sous le titre Afin que nul ne meure..., Paris, Presses de la Cité, 1949 ; réédition, Paris, Presses Pocket no 80-81, 1963
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>That None Should Die (1941) Publié en français sous le titre Afin que nul ne meure..., Paris, Presses de la Cité, 1949 ; réédition, Paris, Presses Pocket no 80-81, 1963
 Spencer Brade M.D. (1942) Publié en français sous le titre La Fin du voyage, Paris, Presses de la Cité, 1948 ; réédition, Paris, Presses Pocket no 133-134, 1964
 Air Surgeon (1943) Publié en français sous le titre Merci, colonel Flynn, Paris, Presses de la Cité, 1948 ; réédition, Paris, Presses Pocket no 4-5, 1962
 Battle Surgeon (1944) Publié en français sous le titre Non pas la mort, mais l'amour, Paris, Presses de la Cité, 1950 ; réédition, Paris, Presses Pocket no 254, 1965
@@ -602,17 +621,7 @@
 Doctor's Daughters (1981) Publié en français sous le titre Filles de chirurgien, Paris, Presses de la Cité, 1982 ; réédition, Paris, Presses Pocket no 2174, 1983
 Doctors at Risk (1983) Publié en français sous le titre Le Calvaire du docteur Harrison, Paris, Presses de la Cité, 1983 ; réédition, Paris, Presses Pocket no 2745, 1986
 No Greater Love (1985) Publié en français sous le titre Jusqu'à son dernier souffle, Paris, Presses de la Cité, 1985
-Transplant (1987) Publié en français sous le titre La Greffe, Paris, Presses de la Cité, 1987 ; réédition, Paris, Presses Pocket no 3472, 1990
-Romans signés C. V. Terry
-Buccaneer Surgeon (1954) Publié en français sous le titre Chirurgien au long cours, Paris, Presses de la Cité, 1955 ; réédition sous la signature Frank Slaughter, Paris, Presses de la Cité, 1964 ; réédition, Paris, Presses Pocket no 506-507, 1967
-Darien Venture (1955) Publié en français sous le titre Nuits des Caraïbes, Paris, Presses de la Cité, 1955 ; réédition sous la signature Frank Slaughter, Paris, Presses de la Cité, 1965 ; réédition, Paris, Presses Pocket no 922, 1972
-The Golden Ones (1957) Publié en français sous le titre Le Mirage doré, Paris, Presses de la Cité, 1959 ; réédition sous la signature Frank Slaughter, Paris, Paris, Presses Pocket no 1070, 1974
-The Deadly Lady of Madagascar (1959) Publié en français sous le titre Capitaine Carter, Paris, Presses de la Cité, 1959 ; réédition sous la signature Frank Slaughter, Paris, Paris, Presses Pocket no 837, 1971
-Autres publications
-New Science of Surgery (1946) Publié en français sous le titre À la pointe du bistouri, Paris, Presses de la Cité, 1954 ; réédition, Paris, Presses Pocket no 947, 1972
-Medecine for Moderns (1947)
-The Crown and the Cross: the Life of Christ (1959)
-David, Warrior and King: a Biblical Biography (1962)</t>
+Transplant (1987) Publié en français sous le titre La Greffe, Paris, Presses de la Cité, 1987 ; réédition, Paris, Presses Pocket no 3472, 1990</t>
         </is>
       </c>
     </row>
@@ -637,10 +646,90 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans signés C. V. Terry</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Buccaneer Surgeon (1954) Publié en français sous le titre Chirurgien au long cours, Paris, Presses de la Cité, 1955 ; réédition sous la signature Frank Slaughter, Paris, Presses de la Cité, 1964 ; réédition, Paris, Presses Pocket no 506-507, 1967
+Darien Venture (1955) Publié en français sous le titre Nuits des Caraïbes, Paris, Presses de la Cité, 1955 ; réédition sous la signature Frank Slaughter, Paris, Presses de la Cité, 1965 ; réédition, Paris, Presses Pocket no 922, 1972
+The Golden Ones (1957) Publié en français sous le titre Le Mirage doré, Paris, Presses de la Cité, 1959 ; réédition sous la signature Frank Slaughter, Paris, Paris, Presses Pocket no 1070, 1974
+The Deadly Lady of Madagascar (1959) Publié en français sous le titre Capitaine Carter, Paris, Presses de la Cité, 1959 ; réédition sous la signature Frank Slaughter, Paris, Paris, Presses Pocket no 837, 1971</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frank_G._Slaughter</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_G._Slaughter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>New Science of Surgery (1946) Publié en français sous le titre À la pointe du bistouri, Paris, Presses de la Cité, 1954 ; réédition, Paris, Presses Pocket no 947, 1972
+Medecine for Moderns (1947)
+The Crown and the Cross: the Life of Christ (1959)
+David, Warrior and King: a Biblical Biography (1962)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Frank_G._Slaughter</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_G._Slaughter</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Au cinéma
 1953 : Sangaree (en), film américain d'Edward Ludwig, d'après le roman éponyme, avec Fernando Lamas, Arlene Dahl et Patricia Medina
